--- a/16SDADA2/RStudio/16S_D_metadata.xlsx
+++ b/16SDADA2/RStudio/16S_D_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erics\OneDrive\Documents\Miller Lab\Rscripts_PilotRABR\DADA2\16SDADA2visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04969089-E6CC-41E7-BE44-8C6E41C047FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2CE1E8-D2A4-4916-8FF4-ED13F01D6B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1080" windowWidth="14568" windowHeight="9312" activeTab="3" xr2:uid="{A9836511-81CE-426F-8AEC-66BE54ADB11D}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="14568" windowHeight="9312" activeTab="1" xr2:uid="{A9836511-81CE-426F-8AEC-66BE54ADB11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot" sheetId="2" r:id="rId1"/>
@@ -41,13 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
-  <si>
-    <t>27 (30, 100, 10)</t>
-  </si>
-  <si>
-    <t>36 (20, 100, 4)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="154">
   <si>
     <t>43 (10, 1200, 4)</t>
   </si>
@@ -70,9 +64,6 @@
     <t>60 (10, 1200, 7)</t>
   </si>
   <si>
-    <t>7 (30, 600, 7)</t>
-  </si>
-  <si>
     <t>72 (10, 600, 7)</t>
   </si>
   <si>
@@ -217,63 +208,12 @@
     <t>control</t>
   </si>
   <si>
-    <t>16_R45_11_15_21</t>
-  </si>
-  <si>
-    <t>TF_11_9_21_R1</t>
-  </si>
-  <si>
     <t>C1_16S</t>
   </si>
   <si>
     <t>C2_16S</t>
   </si>
   <si>
-    <t>2_GHR_6_15_22_16S</t>
-  </si>
-  <si>
-    <t>6_GHR_5_1_22_16S</t>
-  </si>
-  <si>
-    <t>10_TF_6_22_22_16S</t>
-  </si>
-  <si>
-    <t>7_TF_6_9_22_16S</t>
-  </si>
-  <si>
-    <t>3_TF_5_25_22_16S</t>
-  </si>
-  <si>
-    <t>13_R27_11_3_21_16S</t>
-  </si>
-  <si>
-    <t>17_R36_10_28_21_16S</t>
-  </si>
-  <si>
-    <t>19_R43_11_15_21_16S</t>
-  </si>
-  <si>
-    <t>11_R45_10_18_21_16S</t>
-  </si>
-  <si>
-    <t>14_R46_11_5_21_16S</t>
-  </si>
-  <si>
-    <t>20_R58_10_28_21_16S</t>
-  </si>
-  <si>
-    <t>18_R60_11_21_16S</t>
-  </si>
-  <si>
-    <t>12_R60_11_15_21_16S</t>
-  </si>
-  <si>
-    <t>15_R7_11_15_21_16S</t>
-  </si>
-  <si>
-    <t>21_R72_11_15_21_16S</t>
-  </si>
-  <si>
     <t>10_5_16S</t>
   </si>
   <si>
@@ -316,12 +256,6 @@
     <t>Premove_level</t>
   </si>
   <si>
-    <t>4_CVWRF_PSR_2_22_22_16S</t>
-  </si>
-  <si>
-    <t>1_CVWRF_PR_6_22_22_16S</t>
-  </si>
-  <si>
     <t>2023_10_12</t>
   </si>
   <si>
@@ -343,9 +277,6 @@
     <t>2022_6_22</t>
   </si>
   <si>
-    <t>2022_2_22</t>
-  </si>
-  <si>
     <t>2022_6_15</t>
   </si>
   <si>
@@ -397,45 +328,6 @@
     <t>11_2_S</t>
   </si>
   <si>
-    <t>R27_11_3_21</t>
-  </si>
-  <si>
-    <t>R36_10_28_21</t>
-  </si>
-  <si>
-    <t>R43_11_15_21</t>
-  </si>
-  <si>
-    <t>R45_10_18_21</t>
-  </si>
-  <si>
-    <t>R45_11_15_21</t>
-  </si>
-  <si>
-    <t>R46_11_5_21</t>
-  </si>
-  <si>
-    <t>R58_10_28_21</t>
-  </si>
-  <si>
-    <t>R60_11_21</t>
-  </si>
-  <si>
-    <t>R60_11_15_21</t>
-  </si>
-  <si>
-    <t>R7_11_15_21</t>
-  </si>
-  <si>
-    <t>R72_11_15_21</t>
-  </si>
-  <si>
-    <t>CVWRF_PR_6_22_22</t>
-  </si>
-  <si>
-    <t>CVWRF_PSR_2_22_22</t>
-  </si>
-  <si>
     <t>TF_5_25_22</t>
   </si>
   <si>
@@ -475,13 +367,142 @@
     <t>2022_06_09</t>
   </si>
   <si>
-    <t>2021_06_22</t>
-  </si>
-  <si>
     <t>2021_07_06</t>
   </si>
   <si>
     <t>2021_09_11</t>
+  </si>
+  <si>
+    <t>7 (25, 600, 7)</t>
+  </si>
+  <si>
+    <t>27 (25, 200, 10)</t>
+  </si>
+  <si>
+    <t>36 (20, 200, 4)</t>
+  </si>
+  <si>
+    <t>75 (10, 200, 7)</t>
+  </si>
+  <si>
+    <t>2022_06_22</t>
+  </si>
+  <si>
+    <t>TF_5_25_22_16S</t>
+  </si>
+  <si>
+    <t>TF_6_9_22_16S</t>
+  </si>
+  <si>
+    <t>TF_6_22_22_16S</t>
+  </si>
+  <si>
+    <t>TF_7_6_21_16S</t>
+  </si>
+  <si>
+    <t>TF_9_11_21_16S</t>
+  </si>
+  <si>
+    <t>TF_11_9_21_16S</t>
+  </si>
+  <si>
+    <t>R27_11_3_21_16S</t>
+  </si>
+  <si>
+    <t>R36_10_28_21_16S</t>
+  </si>
+  <si>
+    <t>R43_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>R45_10_18_21_16S</t>
+  </si>
+  <si>
+    <t>R45_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>R46_11_5_21_16S</t>
+  </si>
+  <si>
+    <t>R58_10_28_21_16S</t>
+  </si>
+  <si>
+    <t>R60_11_1_21_16S</t>
+  </si>
+  <si>
+    <t>R60_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>R7_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>R72_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>R75_11_15_21_16S</t>
+  </si>
+  <si>
+    <t>GHR_6_15_22_16S</t>
+  </si>
+  <si>
+    <t>GHR_5_1_22_16S</t>
+  </si>
+  <si>
+    <t>2022_6_09</t>
+  </si>
+  <si>
+    <t>CVWRF_PR_6_9_22</t>
+  </si>
+  <si>
+    <t>CVWRF_PSR_6_22_22</t>
+  </si>
+  <si>
+    <t>CVWRF_PR_6_9_22_16S</t>
+  </si>
+  <si>
+    <t>CVWRF_PSR_6_22_22_16S</t>
+  </si>
+  <si>
+    <t>2023_12_05</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>R27_11_3_21_25℃</t>
+  </si>
+  <si>
+    <t>R36_10_28_21_20℃</t>
+  </si>
+  <si>
+    <t>R43_11_15_21_10℃</t>
+  </si>
+  <si>
+    <t>R45_10_18_21_20℃</t>
+  </si>
+  <si>
+    <t>R45_11_15_21_20℃</t>
+  </si>
+  <si>
+    <t>R46_11_5_21_20℃</t>
+  </si>
+  <si>
+    <t>R58_10_28_21_20℃</t>
+  </si>
+  <si>
+    <t>R60_11_1_21_10℃</t>
+  </si>
+  <si>
+    <t>R60_11_15_21_10℃</t>
+  </si>
+  <si>
+    <t>R7_11_15_21_25℃</t>
+  </si>
+  <si>
+    <t>R72_11_15_21_10℃</t>
+  </si>
+  <si>
+    <t>R75_11_15_21_10℃</t>
   </si>
 </sst>
 </file>
@@ -865,115 +886,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D0688D-4756-4C28-A987-ACC92264F490}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>1350.9099999999999</v>
@@ -1021,7 +1045,7 @@
         <v>19.271428571428572</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U2">
         <v>70.857142857142861</v>
@@ -1048,22 +1072,25 @@
       <c r="AB2">
         <v>1.0983318244707112</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>1953.31</v>
@@ -1111,7 +1138,7 @@
         <v>20.414285714285718</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U3">
         <v>74.142857142857139</v>
@@ -1138,22 +1165,25 @@
       <c r="AB3">
         <v>1.3641668568612142</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2193.2799999999997</v>
@@ -1201,7 +1231,7 @@
         <v>20.414285714285718</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U4">
         <v>74.142857142857139</v>
@@ -1228,22 +1258,25 @@
       <c r="AB4">
         <v>1.3641668568612142</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>843.77</v>
@@ -1291,7 +1324,7 @@
         <v>20.414285714285718</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U5">
         <v>74.142857142857139</v>
@@ -1318,22 +1351,25 @@
       <c r="AB5">
         <v>1.3641668568612142</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>399.1</v>
@@ -1381,7 +1417,7 @@
         <v>11.728571428571428</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U6">
         <v>68.285714285714292</v>
@@ -1408,22 +1444,25 @@
       <c r="AB6">
         <v>0.44843660939704605</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>1717.61</v>
@@ -1471,7 +1510,7 @@
         <v>12.72857142857143</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U7">
         <v>73.857142857142861</v>
@@ -1498,22 +1537,25 @@
       <c r="AB7">
         <v>1.6395609966226599</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>1376.4</v>
@@ -1561,7 +1603,7 @@
         <v>14.216666666666667</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U8">
         <v>50.714285714285715</v>
@@ -1588,22 +1630,25 @@
       <c r="AB8">
         <v>0.80006468432251709</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>159.97999999999999</v>
@@ -1651,7 +1696,7 @@
         <v>14.216666666666667</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U9">
         <v>50.714285714285715</v>
@@ -1678,26 +1723,29 @@
       <c r="AB9">
         <v>0.80006468432251709</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1710,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE8EAE-BCEC-4B8D-8A56-5F5360B906DD}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,89 +1769,92 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>23.9</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2">
         <f>I2*60*60*24/1000000</f>
-        <v>8.64</v>
+        <v>17.28</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1811,22 +1862,25 @@
       <c r="M2">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1835,14 +1889,14 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="0">I3*60*60*24/1000000</f>
-        <v>8.64</v>
+        <f t="shared" ref="J3:J13" si="0">I3*60*60*24/1000000</f>
+        <v>17.28</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -1851,24 +1905,27 @@
         <v>-145</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>2.1</v>
@@ -1884,7 +1941,7 @@
         <v>103.68</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1893,27 +1950,30 @@
         <v>1756</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0.5</v>
@@ -1929,7 +1989,7 @@
         <v>51.84</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1937,25 +1997,28 @@
       <c r="M5">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0.75</v>
@@ -1971,7 +2034,7 @@
         <v>51.84</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -1979,25 +2042,28 @@
       <c r="M6">
         <v>1164</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>13.6</v>
@@ -2013,7 +2079,7 @@
         <v>103.68</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -2021,22 +2087,25 @@
       <c r="M7">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2052,7 +2121,7 @@
         <v>51.84</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -2061,27 +2130,30 @@
         <v>-133</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>13.6</v>
@@ -2097,7 +2169,7 @@
         <v>103.68</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2105,22 +2177,25 @@
       <c r="M9">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="G10">
         <v>11.7</v>
@@ -2136,7 +2211,7 @@
         <v>103.68</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2145,33 +2220,36 @@
         <v>1757</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>13.2</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>600</v>
@@ -2181,7 +2259,7 @@
         <v>51.84</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -2190,24 +2268,27 @@
         <v>1756</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>5.9</v>
@@ -2223,7 +2304,7 @@
         <v>51.84</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -2232,11 +2313,50 @@
         <v>1752</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>17.28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,68 +2365,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB55A01-C8D5-465B-8081-6FD17FE41C93}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2316,136 +2445,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19760C41-CE2B-4A72-84FE-A445EB02E538}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2455,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5238ED80-386E-4699-BE2C-A3F009AB1F98}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,46 +2617,55 @@
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4B8533-8A0C-4CE5-939B-625422F13062}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -2524,40 +2683,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
